--- a/biology/Médecine/Liste_des_plus_grandes_entreprises_pharmaceutiques/Liste_des_plus_grandes_entreprises_pharmaceutiques.xlsx
+++ b/biology/Médecine/Liste_des_plus_grandes_entreprises_pharmaceutiques/Liste_des_plus_grandes_entreprises_pharmaceutiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste répertorie les plus grandes entreprises de l'industrie pharmaceutique.
 </t>
@@ -511,15 +523,17 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les classements varient selon les sources. Il y a 2 raisons à cela :
 la définition de ce que l'on appelle « industrie pharmaceutique » ;
 le fait que pour les entreprises privées non cotées ainsi que pour les entreprises étatiques, les données sont difficiles à trouver.
 Nous avons utilisé les sources suivantes :
-Zone Bourse[1].
+Zone Bourse.
 Les sites web des entreprises, avec les données de la page Wikipedia en anglais List of largest biomedical companies by revenue (en).
-Les données de PharmExec sur les 50 plus grosses sociétés de pharmacie mondiales[2].</t>
+Les données de PharmExec sur les 50 plus grosses sociétés de pharmacie mondiales.</t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Autres laboratoires importants : Mylan
 </t>
